--- a/data/_slides.xlsx
+++ b/data/_slides.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>key</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Pitfalls</t>
   </si>
   <si>
-    <t>(Don't over-do it)</t>
-  </si>
-  <si>
     <t>Over-engineering</t>
   </si>
   <si>
@@ -350,7 +347,7 @@
     <t>img/hype-is-over.png</t>
   </si>
   <si>
-    <t>Transparency != Democracy&lt;br/&gt;Not without work</t>
+    <t>Transparency != Democracy&lt;br/&gt;.... At least not without work</t>
   </si>
   <si>
     <t>"Medical statistics will be our standard of measurement: we will weigh life for life and see where the dead lie thicker, among the workers or among the privileged."&lt;br/&gt;— Rudolf Virchow</t>
@@ -707,9 +704,9 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1054,9 +1051,6 @@
       <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" s="11"/>
       <c r="F19" s="11"/>
       <c r="J19" s="11"/>
@@ -1064,10 +1058,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>23</v>
@@ -1076,13 +1070,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="F21" s="11"/>
       <c r="J21" s="11"/>
@@ -1092,10 +1086,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>23</v>
@@ -1103,31 +1097,31 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>70</v>
@@ -1141,26 +1135,26 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>23</v>
@@ -1168,10 +1162,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>12</v>
@@ -1182,10 +1176,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>23</v>
@@ -1193,61 +1187,61 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="99.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
